--- a/ENG_Player_Data.xlsx
+++ b/ENG_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -626,9 +626,6 @@
     <t>David Willey</t>
   </si>
   <si>
-    <t>28/03/1990</t>
-  </si>
-  <si>
     <t>51*</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>Total Players = 43</t>
+  </si>
+  <si>
+    <t>28/02/1990</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2867,7 @@
         <v>194</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J41">
         <v>24.56</v>
@@ -2903,18 +2903,18 @@
         <v>5.52</v>
       </c>
       <c r="O41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" t="s">
         <v>198</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>199</v>
-      </c>
-      <c r="C42" t="s">
-        <v>200</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -2950,18 +2950,18 @@
         <v>5.43</v>
       </c>
       <c r="O42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
         <v>202</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>203</v>
-      </c>
-      <c r="C43" t="s">
-        <v>204</v>
       </c>
       <c r="D43" t="s">
         <v>135</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J43">
         <v>10</v>
@@ -2997,18 +2997,18 @@
         <v>5.9</v>
       </c>
       <c r="O43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
         <v>207</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>208</v>
-      </c>
-      <c r="C44" t="s">
-        <v>209</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -3044,12 +3044,12 @@
         <v>5.53</v>
       </c>
       <c r="O44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
